--- a/code/zdd1.xlsx
+++ b/code/zdd1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:AX51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,393 +467,7725 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.6096126982072733</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3430121749848507</v>
+        <v>0.4603364470064606</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2842344129652223</v>
+        <v>0.06443763428118908</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2328385340548903</v>
+        <v>0.3715386775471435</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2584965896965077</v>
+        <v>0.2764221130379589</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2573724153054509</v>
+        <v>0.1913922937100817</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2233182834636902</v>
+        <v>0.1905944207796439</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2373871079965864</v>
+        <v>0.07247915643840001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.246143503424761</v>
+        <v>0.253140546783774</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1537279535104899</v>
+        <v>0.2650866947130483</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.01054063075426321</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.2135107480171141</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.2019549562980668</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.2258275510955325</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.2229373509326502</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.2419514667843815</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.2044183807238033</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.04632878341535567</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.07916832764339027</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1360968603190843</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.06779317989203708</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.1265285840244877</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.168456306742276</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.09519750208887486</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.1698325763974019</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.1189821426447657</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.1255290815777491</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.02534217319537624</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.007080019835831257</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.1434209101798377</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.06681448375333224</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.1059923618677256</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.1473745318880191</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.02187439715269795</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.135448287562187</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.06039095901266129</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.1262211034528225</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.05301188217445406</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.1124048126028228</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.06364261612975791</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.1135078216644407</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.1022452823711525</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.1020690168761754</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.1047001375303864</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.1016351010500595</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.02572018857314922</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.005908798190154089</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0894450325691598</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.0416759539630218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.6096126982072733</v>
       </c>
       <c r="B3" t="n">
         <v>0.9999999999999998</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3430121749848507</v>
+        <v>0.3936109547720979</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2842344129652223</v>
+        <v>0.09326612715983208</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2328385340548903</v>
+        <v>0.3579337230562261</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2584965896965077</v>
+        <v>0.275830386697101</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2573724153054509</v>
+        <v>0.3371309547800883</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2233182834636902</v>
+        <v>0.1711758436300272</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2373871079965864</v>
+        <v>0.07572257807996007</v>
       </c>
       <c r="J3" t="n">
-        <v>0.246143503424761</v>
+        <v>0.2608347180136115</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1537279535104899</v>
+        <v>0.2566985848198073</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.05510117872467933</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2225248393198523</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2034670703960855</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2235109986693928</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2177572665392254</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2373193169013927</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1977530767278659</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.03092993760946716</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.09733411003900413</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1567234885808112</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0427850312323576</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.1329912773748502</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.160057103289159</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.09221402978245474</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.1607958536152894</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.1295180126123472</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.1166913947323541</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.02603973394684717</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.03063708778642397</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.1391466691680075</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.06811323174499398</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.1040733903872485</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.1417713881616564</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.01357293990924441</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.1305462357070085</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.08747814352215258</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.1298452848302699</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.05736740695504215</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.1149452105864498</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.0475860764090684</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.1074162309007306</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.1043555992186602</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.1095054115245274</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.1019784523670245</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.09959006757492615</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.04898927266992962</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.04966538748633448</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.08194801243986961</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.04575709937702246</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3430121749848507</v>
+        <v>0.4603364470064606</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3430121749848507</v>
+        <v>0.393610954772098</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06538020895589546</v>
+        <v>0.01994796023823843</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5908925387384866</v>
+        <v>0.5814632115723378</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09596532168523962</v>
+        <v>0.275337968438413</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1138938972413768</v>
+        <v>0.08831068335776635</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1468607559282933</v>
+        <v>0.13193536858109</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1272050572623092</v>
+        <v>0.1374219836319362</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1340912079960527</v>
+        <v>0.2079387365172297</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1392482325942535</v>
+        <v>0.1849948939998023</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1565151144749763</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1475646423796535</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1670955520693138</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.1595206471338781</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.1570461733239594</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.1788136153923742</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1598312001281545</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.1041192125561946</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.1230411895240453</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.09859685944694299</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.09453907433605388</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0901631104384373</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.134931914558043</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.07927926917463526</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.134828168196854</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.1070331501359895</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.1026112478755251</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.06390553770655245</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.03323582064013589</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.1109091853579165</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.1108444058444139</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.09813313703164485</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.1198631215272443</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.01574833770609688</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.1074667701958717</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.04218148448173414</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.1019329914525887</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.07299637727678478</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.08674632521085329</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.03973276339546405</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.09157765281064159</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.08357267977637646</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.08781055489705374</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.08293465829745965</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.08180518997353708</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.03660584179791947</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.02379406413359306</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.06858683605139095</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.05707472511166456</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2842344129652223</v>
+        <v>0.06443763428118908</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2842344129652223</v>
+        <v>0.0932661271598321</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06538020895589546</v>
+        <v>0.01994796023823843</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001806625941205717</v>
+        <v>0.1575247172431015</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0854577836245662</v>
+        <v>0.2776250346384451</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09472254192015195</v>
+        <v>0.2638648726008241</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1067501412744832</v>
+        <v>0.3848451769088965</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09461319541851357</v>
+        <v>0.2013465544411374</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06962622084317868</v>
+        <v>0.1904837232511956</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1037910258310473</v>
+        <v>0.04228339089594348</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.07150850775750411</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1529461594826667</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1123608707204987</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.06534404900970234</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1420344060851858</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.146518153078968</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1336198046116367</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1247692560864793</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.05647549107409669</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.05093650345182623</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.118502930164542</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.08195286523745131</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.08178611106290848</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.05181961557845527</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.1120541834791114</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.04451617443264814</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.09605618650762968</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.09111370524142148</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.0171276401189604</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.08765058194774251</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.07440055065684771</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.05000372503851516</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.09983182823526363</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.1706586713041968</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.07672213148415309</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.03369445860049106</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.08986506552006315</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.07212486182969111</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.06522384306175893</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0660048721234737</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.06817691900938112</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.006257245887144317</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.07900120703854406</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.05915370869735626</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.06693699593538432</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.0004052431433492001</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.0163224201150065</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.06408925767469778</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.005500678808667925</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2328385340548903</v>
+        <v>0.3715386775471436</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2328385340548903</v>
+        <v>0.3579337230562261</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5908925387384866</v>
+        <v>0.5814632115723378</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001806625941205717</v>
+        <v>0.1575247172431015</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08590384612829109</v>
+        <v>0.2092991868471902</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06573853697311717</v>
+        <v>0.1754772959915279</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1139701064799902</v>
+        <v>0.1659185728121402</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08489845461483841</v>
+        <v>0.1096716456333662</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1082787085832055</v>
+        <v>0.1584342682085319</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1050444962445184</v>
+        <v>0.1599974098024297</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1546614855955067</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1043002923390048</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1398828234873668</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.1404710573910424</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1084773422621103</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1363314732192565</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.1176315524270129</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.07027568755128827</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1105114882696363</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.07469576697536827</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.07560671908456688</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.08234070018300053</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0976105937268438</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.08469290568401082</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.09362618481331703</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.08867546960932</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.07885815161593526</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.04056840478424852</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.02270842370843821</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.08383674073021882</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1736826352218349</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.06307763178692703</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.08310843362962353</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.05161221097129772</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.07729337325115991</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0681188265888068</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.07618199420528719</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.04493571707140243</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.05712268258727926</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.04141145739715277</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.06397169684136417</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0591172640877726</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.06125881100941864</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.06070512879469103</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.05843084684064315</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0369983887628976</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.05767217721259611</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.050745870253222</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.04202427584864764</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2584965896965077</v>
+        <v>0.2764221130379589</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2584965896965077</v>
+        <v>0.2758303866971011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09596532168523962</v>
+        <v>0.275337968438413</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0854577836245662</v>
+        <v>0.2776250346384451</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08590384612829109</v>
+        <v>0.2092991868471902</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06264781523374752</v>
+        <v>0.1307795538220335</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1577664068872437</v>
+        <v>0.1316053702280514</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08333671294975394</v>
+        <v>0.4749926420874563</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07725708173546113</v>
+        <v>0.5599154472929614</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04762744183140521</v>
+        <v>0.09172023663812175</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.06948187936667102</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.139524566806302</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.09377073226665864</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.01502016140261495</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.1335322263382343</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1279500072978243</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1113210101861819</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.09065082665014403</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.07779136734992995</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.09828842266867654</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.2338380283536406</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.07699911666974892</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.2174019935168983</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.04609450229857696</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.3387045485079297</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.03282836967115919</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.1736227525774401</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.08494929540737836</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.03115340353975582</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.05214489431653659</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.06871481678380245</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.02881647784720647</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.2946199198990391</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.07829628811084531</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.01386106822602327</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.03445438403717339</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.2707598249183578</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.06633262974631604</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.1077997563857543</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.06280229105887374</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.01592020033461696</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.04932000467437023</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.1744012458558575</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0591339094687981</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.08202614275185502</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.01861755444685919</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.04045623146296754</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0660987715074343</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.02856681863657235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2573724153054509</v>
+        <v>0.1913922937100817</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2573724153054509</v>
+        <v>0.3371309547800883</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1138938972413768</v>
+        <v>0.08831068335776635</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09472254192015195</v>
+        <v>0.2638648726008241</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06573853697311717</v>
+        <v>0.1754772959915279</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06264781523374752</v>
+        <v>0.1307795538220335</v>
       </c>
       <c r="G8" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07374112365596022</v>
+        <v>0.02170239189369197</v>
       </c>
       <c r="I8" t="n">
-        <v>0.718898663040877</v>
+        <v>0.02568312248391226</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09570859996478909</v>
+        <v>0.128784232365373</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07118439263833831</v>
+        <v>0.1290913622350696</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1339105635867951</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1304891511324478</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.08741790669155865</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1060297257466569</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.1248716783133877</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.1255638447829909</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1060789447574458</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.02963752436032452</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.05766355623176588</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.09416551912642142</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.027193708349482</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.05749525222764441</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.08499866581005489</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.0296329600825121</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.0856633154907195</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.07647943052664723</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.06157791980859433</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.02920518998948721</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.05236774376230932</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.0756031252251239</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.05035630433986168</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.05355800294533476</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.07306983989716388</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.00994513700820094</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.06943349304019006</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.05847534710112932</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.06870015219623099</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.01029664564372319</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.05962653964414168</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.01477121322347236</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.05768902947604718</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.05479612595359557</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.05226619347113472</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.05224313750639842</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.04805320106176323</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.03315237721019868</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.03017420343239894</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.04891784037939165</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.01583882841809805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2233182834636902</v>
+        <v>0.1905944207796439</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2233182834636902</v>
+        <v>0.1711758436300272</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1468607559282933</v>
+        <v>0.13193536858109</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1067501412744832</v>
+        <v>0.3848451769088965</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1139701064799902</v>
+        <v>0.1659185728121402</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1577664068872437</v>
+        <v>0.1316053702280514</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07374112365596022</v>
+        <v>0.02170239189369197</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08014544685214155</v>
+        <v>0.1050989101818942</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06500434947426555</v>
+        <v>0.1068155490885226</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5229625399980262</v>
+        <v>0.2768682248547744</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.02162832157072619</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.100631013668434</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.01272409924548427</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.2878636666869406</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.09315429562070854</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.09579323521062803</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0772989069933756</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.008474765775442587</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.01713345970552991</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0004839949199371314</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.06712790232968772</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.02054850810110796</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.01902094487192777</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.0272410448145489</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.05679581448076023</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.03635548572670375</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.05093064874150824</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.003629985376690772</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.03630601409548116</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.002204913667646288</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.05749236008921868</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.01455498336261893</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.032630398500211</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.008930410136013534</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.03635347591743836</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.03021324943607159</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.03977877397773196</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.009456273301846731</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.03903985826984579</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.004233113581730874</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.03506294497537515</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.01276113179468815</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.04483150117698717</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.02892857390590502</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.04052606135581618</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.01052292298776222</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.002986838321613347</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.04121846551746979</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.02819747281167503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2373871079965864</v>
+        <v>0.07247915643840001</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2373871079965864</v>
+        <v>0.07572257807996007</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1272050572623092</v>
+        <v>0.1374219836319362</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09461319541851357</v>
+        <v>0.2013465544411374</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08489845461483843</v>
+        <v>0.1096716456333662</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08333671294975394</v>
+        <v>0.4749926420874563</v>
       </c>
       <c r="G10" t="n">
-        <v>0.718898663040877</v>
+        <v>0.02568312248391226</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08014544685214155</v>
+        <v>0.1050989101818942</v>
       </c>
       <c r="I10" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08747210346549625</v>
+        <v>0.1914824442325707</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07167167161206622</v>
+        <v>0.03244076408396172</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.04435591266240882</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1035089868127084</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1031287785698972</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0361940828757806</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.09855365479941307</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.09898010181440788</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.08425883814559795</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0673957585094746</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.07559042255265309</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.07869700629816088</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.2434470551335441</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.06988450372964859</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.1209532558198036</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.006412210934111301</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.07688202966533056</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.03673436602668333</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.1727948137048721</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.05607935005069312</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.02759912017032847</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.05913753446350375</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.03075246611453997</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.02018642824433771</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.08032534163959867</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.05768604631306525</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.04937786916814082</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.007844734531634492</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.0220072379704381</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.04961781113945059</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.02653853036797613</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.04356250312694992</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.04658209392110678</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.04347746235582608</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.07669179753148207</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.0456808111347342</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.01012457604909661</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.009590677338715534</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.03946747361370854</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.01922688258201814</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.03625012001480021</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.246143503424761</v>
+        <v>0.253140546783774</v>
       </c>
       <c r="B11" t="n">
-        <v>0.246143503424761</v>
+        <v>0.2608347180136115</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1340912079960527</v>
+        <v>0.2079387365172297</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06962622084317868</v>
+        <v>0.1904837232511956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1082787085832055</v>
+        <v>0.1584342682085319</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07725708173546113</v>
+        <v>0.5599154472929615</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09570859996478907</v>
+        <v>0.128784232365373</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06500434947426555</v>
+        <v>0.1068155490885226</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08747210346549625</v>
+        <v>0.1914824442325708</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07484221128678158</v>
+        <v>0.02062632406399077</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0775896103241288</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.09686703165522038</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.07429766887428925</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.03158730039157591</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.09473568820348388</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.09041041655793597</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.07556943029653666</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.0635226037442404</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.04535591616549448</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.06998078882062178</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.0754104840249169</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.05503653658679078</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.09490828413665016</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.04458816704037354</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.2272646294828228</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.02167443321007284</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.2958520004549233</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.0592283990844699</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.02389766104113342</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.03555851892626375</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.05370924849540361</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.02263881098852798</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.1459676952006473</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.05469652944766294</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.002942498951977752</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.04539603909612559</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.2780664944236648</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.04900072464889461</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.1133368694724865</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.04177780258876543</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.02683882296230224</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.03681152729548036</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.1933265054437859</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.03919773053947184</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.1112899438329692</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.02633094036455864</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.03728057008963978</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.06009140713624921</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.01713499870730045</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1537279535104898</v>
+        <v>0.2650866947130483</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1537279535104898</v>
+        <v>0.2566985848198073</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1392482325942534</v>
+        <v>0.1849948939998023</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1037910258310473</v>
+        <v>0.04228339089594348</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1050444962445185</v>
+        <v>0.1599974098024297</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04762744183140522</v>
+        <v>0.09172023663812175</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07118439263833831</v>
+        <v>0.1290913622350696</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5229625399980262</v>
+        <v>0.2768682248547744</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07167167161206622</v>
+        <v>0.03244076408396172</v>
       </c>
       <c r="J12" t="n">
-        <v>0.07484221128678158</v>
+        <v>0.02062632406399077</v>
       </c>
       <c r="K12" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.08138430686068804</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.07939014492347415</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.03055514823927515</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.2977038935785193</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.08337971518533119</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.07758605126297487</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.07055309299841483</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.05064069438876798</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.01681889713141606</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.00687344585330606</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.03310939891610599</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.01371530921323321</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.3317117900003773</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.02357056474283737</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.05484653621251934</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.0289220302601826</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.01302452891121284</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.000138162564937178</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.04208598873229401</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.1099831937184074</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.05240405379259893</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.07591880921132654</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.05843963236822139</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.02567370571927502</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.01832429898934569</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.01407159854422013</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.008559404346012194</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.0114319595870188</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.02932394476313272</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.004178777759581776</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.02818429122618521</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.02474397236305542</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.007478528009337719</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.0188652552744851</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.03217718600045165</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.03169226059824833</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.01801016657948448</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.02121725608909031</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.0350587754768581</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.01054063075426321</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.05510117872467933</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1565151144749763</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.07150850775750413</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1546614855955067</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.06948187936667104</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1339105635867951</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.02162832157072619</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.04435591266240883</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0775896103241288</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.08138430686068804</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.03158486665810792</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.03455710439204564</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.06732186732186733</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.03711630542998735</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.02789142825925814</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.05904756891928503</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.06051613298515277</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.07240196963571868</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.06705932983947134</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.014948118510233</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.0109175818165634</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.05910787375488018</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.00905842336595427</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.04321590449031976</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.01686520405675928</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.03148579312911559</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.008628709052295446</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.04856900292620363</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.03188851869689607</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.04215774799735358</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.04419691400871321</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.03891317777959733</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.03236210888096627</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.04780916382480169</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.02859809715018892</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.04599473508095783</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.002323075475811514</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.04334641722693194</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.01912179811689822</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.04058135050193515</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.03726546458317508</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.03984519257027894</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.01730054381838727</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.03405351511822734</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.001180714991060982</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.02155121829293081</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.02278126908038344</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.08342241071152075</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.2135107480171141</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2225248393198523</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1475646423796535</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1529461594826667</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1043002923390048</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.139524566806302</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1304891511324478</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.100631013668434</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1035089868127084</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0968670316552204</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.07939014492347417</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.03158486665810792</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.06825501646400782</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.05628811432366719</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.78773534791098</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.8090118781152794</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.6850485954554139</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0631114461875469</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.02931772798913069</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.02190290570520697</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.05996421886922015</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.05301422341798926</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.05737075797129084</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.02701831332676365</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.05508936308807126</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.02560397850146622</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.05237781658678423</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.04884191278497516</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.005467373544363329</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.06837043228245999</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.04425427333667058</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.03669516613915683</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.04908046859690538</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.0357716404182636</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.006899304488908047</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.02050267196723291</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.04418049437922984</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.04198592301075435</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.03962714791834911</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.03562941924327278</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.02234758139993175</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.03060257518586375</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.03883947965007077</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.02729409560710005</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.01479845367462545</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.09259512914007358</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.03611739301333732</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.03439877094019753</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0.01009726057980973</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.2019549562980668</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2034670703960855</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1670955520693138</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1123608707204987</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1398828234873668</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.09377073226665864</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.08741790669155863</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.01272409924548427</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1031287785698972</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.07429766887428925</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.03055514823927515</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.03455710439204564</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.06825501646400782</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.08565271125849673</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.07484221706261657</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.06595964060409192</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.06629987249077079</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.05444036896015458</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.0452674081093148</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.4360453264665937</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.05786510079685465</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.0007417286050332278</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.01776485350184441</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.09533539505500195</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.05285272945088618</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.07212139554841443</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.04147243292810886</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.04440847387469937</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.001548143688075315</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.1240965986211102</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.04647901718241408</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.03071016685520916</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.04891064417766851</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.04733339235297448</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.05915689772001681</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.007867290876779301</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.03898783229129335</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.006774670112373319</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.005264218896219741</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.02110630563800328</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.04053629920592328</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.005765631689412472</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.02444592057815227</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.3343818817541398</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.03458905246771069</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.006151396465374457</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.02459903337468928</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.0170468440482617</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.01123987601852421</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.2258275510955324</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2235109986693927</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1595206471338781</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.06534404900970234</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1404710573910424</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01502016140261495</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1060297257466569</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2878636666869406</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0361940828757806</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.03158730039157591</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2977038935785193</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.06732186732186732</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0562881143236672</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.08565271125849673</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.05118031859861503</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.06548290903338284</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.04428372998074297</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.02019023021418484</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.03371210610970239</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.08705217351831994</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.04501944330241475</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.001060093064155588</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.07643353869382995</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.01677974058017724</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.0224980256505258</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.0280433044199602</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.02707857618418263</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.01294306357844317</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.005580620886212695</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.2383387282237123</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.04550245833367324</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.03315036670733621</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.02640819725923859</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.01520681671937769</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.007441992482162527</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.03198557107230697</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.02257753730140323</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.005161746256728326</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.03011660136731585</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.01808351043634266</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.02101842172010817</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.0265084232601967</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.01466313645100361</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.01090334963930055</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.02311661975178936</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.03030501810389852</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.01483908312994166</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.0204949768429256</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0.0124819322808411</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.2229373509326502</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2177572665392254</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1570461733239594</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1420344060851858</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1084773422621103</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1335322263382343</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1248716783133877</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.09315429562070854</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.09855365479941305</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.09473568820348388</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.08337971518533119</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.03711630542998735</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7877353479109799</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.07484221706261655</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.05118031859861502</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.8161346317435511</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.709997619758577</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.06408345984391249</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.03968723771863991</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.008739740358578359</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.05596608488748839</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.05297956593321011</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.05338065881724112</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.0221765263582515</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.05320105280599728</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.03166444190621298</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.05058245058381756</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.05124800273331007</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.00930447517129402</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.05700918620974122</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.04504169540162499</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.03469455804839457</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.04739812652022572</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.03862280168016468</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.009168256498121493</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.02883699871449986</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.04266610980248246</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.042957461861176</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.03826883940525453</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.03422375254307225</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.04377304758961673</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.03226676260487112</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.03457930884893471</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.03513446787982874</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.007392161741685274</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.09737169988523174</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.03177645249098444</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0.03321967666108527</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0.02288692558129022</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.2419514667843815</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2373193169013927</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1788136153923742</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.146518153078968</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1363314732192565</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1279500072978243</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1255638447829909</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.09579323521062805</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.09898010181440788</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.09041041655793597</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.07758605126297485</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.02789142825925813</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.8090118781152795</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.06595964060409192</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.06548290903338284</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.8161346317435509</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.753521106042487</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.06284117445641441</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.008127767576993475</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.05182846628699551</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.05684016644444434</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.04779257448916086</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.0543818212531735</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.007946558052319846</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.05221928387116372</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.01713885539044791</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.04964900517227587</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.04809138060539511</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.007784709269609148</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.05954518230626595</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.04421049874319033</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.03606181639463509</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.04652344442781377</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.04502317411143296</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.007464594831320761</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.01182744907216371</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.04187875205362317</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.03693975710248339</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.03756262861207306</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.03649166729208494</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.0674876330082491</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.03156431735612853</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.0308642052517982</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.03448609858473023</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.02222724897601618</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.08887797025828947</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0.02505338911296056</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0.03260664280459376</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0.02957721468060034</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.2044183807238033</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1977530767278659</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1598312001281545</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1336198046116367</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1176315524270129</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1113210101861819</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1060789447574458</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.07729890699337562</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.08425883814559795</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.07556943029653666</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.07055309299841483</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.05904756891928502</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.6850485954554139</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.06629987249077078</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.04428372998074297</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.709997619758577</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.753521106042487</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.05457419026348079</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.02588089869614516</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.04875200027892471</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.04801975351013626</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.04562124745823111</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.04594289241855173</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.02468492958471107</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.04411593590986414</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.02455028930088064</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.04194451106554065</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.03993267608088103</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.01032701606126645</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.01674211289732546</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.03734994784512444</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.03302932535492815</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.03930397241270745</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.03519040584355004</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.00127361557606656</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.02861669153552133</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.03538003979795975</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.02956281485555894</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.03173368904377727</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.0273484925297404</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.009969504622463113</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.02932735479715366</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.02765210026545796</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.02545847134567172</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.01925849424966442</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.02657672750034116</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.01742927372334231</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0.02754676926922847</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0.01644969117135488</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.04632878341535566</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.03092993760946715</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1041192125561946</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1247692560864793</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.07027568755128827</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.09065082665014403</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02963752436032452</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.008474765775442587</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0673957585094746</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0635226037442404</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.05064069438876798</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.06051613298515277</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0631114461875469</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.05444036896015458</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.02019023021418485</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.06408345984391249</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.06284117445641441</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.05457419026348079</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.00536502306825626</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.05079047400338055</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.0388067077939973</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.01675111640397317</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.04112331433564145</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.03940719226263567</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.044071008519935</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.02962275887194701</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.03670641302425008</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.0114344259817564</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.02109722536167595</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.03332256446789227</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.003265621868904485</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.03859824368274693</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.03926394549594981</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.001884135481482828</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.03366362156639844</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.02237623349680554</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.007876469535757182</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.01132792116661342</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.01476271597337033</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.0249401862103615</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.0296791420572683</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.02929748800463556</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.0310712439320024</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.02910490209510976</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.02710851031840403</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.0248500449549496</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.02050198698019723</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0.02751871581374302</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0.02068922004567883</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.07916832764339027</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.09733411003900413</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1230411895240453</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.05647549107409669</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1105114882696363</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.07779136734992993</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.05766355623176589</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.01713345970552991</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.07559042255265311</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.04535591616549448</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01681889713141606</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.07240196963571868</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.02931772798913068</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0452674081093148</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.03371210610970238</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.03968723771863991</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.008127767576993475</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.02588089869614516</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.005365023068256259</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.03122370524329371</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.0386919738045198</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.02430321780909519</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.04102087034535592</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.02696383193178071</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.02412055931666144</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.1735791205559119</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.01579170156111669</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.001336806023238658</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.01826611468372993</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.02485840958294748</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.03723574455037302</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.0008463650558270771</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.03641706574154279</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.01223481158880126</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.01962977255375483</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.03361395922738303</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.02915676621842703</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.02220437280103763</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.03163665833684176</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.02375466138056012</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.05357455627175033</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.01458679209506603</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.01716658628887641</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.01061444073088265</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.01520420292171346</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.02049985194060277</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.1172766723364742</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0.08541587766918488</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0.01634981125330784</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.1360968603190843</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1567234885808112</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.09859685944694299</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.05093650345182624</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.07469576697536826</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.09828842266867654</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.09416551912642142</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0004839949199371314</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.07869700629816088</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.06998078882062179</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.006873445853306059</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.06705932983947134</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.02190290570520697</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.4360453264665937</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.08705217351831993</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.008739740358578359</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.05182846628699551</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.04875200027892472</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.05079047400338054</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.03122370524329371</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.04182586501808775</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.03680495983524031</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.03225962304336207</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.1013460737801984</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.04275181753943795</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.06166806233559326</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.04064753579111934</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.04118236663670136</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.01101834079992321</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2715402023957513</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.03023759882722561</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.008708824961139445</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.03808864580355553</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.03100506287147766</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.01603670295733167</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.005063795151473521</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.03428604595561184</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.02828774523873259</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.01682596857482681</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.01197489185516183</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.004604026078545057</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.00211913957905829</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.02659148285754184</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.3045324644821004</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.0142197972783059</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.01999911402583208</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.02668948601211546</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0.009241187642528676</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0.002132364076481365</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.06779317989203708</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0427850312323576</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.09453907433605388</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.118502930164542</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.07560671908456687</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2338380283536406</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.027193708349482</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.06712790232968771</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2434470551335441</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0754104840249169</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.03310939891610599</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.014948118510233</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.05996421886922014</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.05786510079685465</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.04501944330241475</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.05596608488748839</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.05684016644444435</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.04801975351013626</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.0388067077939973</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.0386919738045198</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.04182586501808775</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.04010119125437731</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.03734962917704192</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.02793926781433683</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.09204073497289467</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.03735444881790433</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.01565108341025492</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.02582529794818077</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.02003511261142185</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.03422397768197624</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.002980465477035121</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.01504717403225535</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.1887941940937288</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.03343419048445973</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.03221704725392455</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.02363512630573507</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.03109914396410228</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.027905678017076</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.02789399248051144</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.02318581031721499</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.02611463549164244</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.02167227643127533</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.004061941612999266</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.02560936255391503</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0.01499625077186467</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.007404197154131189</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0.02741938861686175</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0.01984967487831904</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0.01236541387203501</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.1265285840244877</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1329912773748502</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0901631104384373</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.08195286523745131</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.08234070018300055</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.07699911666974892</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.05749525222764441</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02054850810110796</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.06988450372964858</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.05503653658679079</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.01371530921323321</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0109175818165634</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.05301422341798925</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0007417286050332278</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.001060093064155588</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.05297956593321012</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.04779257448916086</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.04562124745823111</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.01675111640397317</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.02430321780909519</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.03680495983524031</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.04010119125437731</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.03274628682757698</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.02255268991834952</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.03684112170450608</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.04912326339939344</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.03502776956061508</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.02642309394465405</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.01115579153333628</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.01998648790174419</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.02777765828833169</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.0437537734567784</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.03282266150004396</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.03176420881325855</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.04931729642315553</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.04028430923468395</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.02954579394552662</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.03809667697241727</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.01738324024648391</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.5198683355185223</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.04746954484455908</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.07022736585602214</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.02190652066953952</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.002665227160546733</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.0330507025454156</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.005611802789850493</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0.01856646558190179</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0.1417072403048817</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0.05460853180054218</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.168456306742276</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.160057103289159</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.134931914558043</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.08178611106290848</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.09761059372684379</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2174019935168983</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0849986658100549</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01902094487192777</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1209532558198036</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.09490828413665015</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3317117900003774</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.05910787375488018</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.05737075797129083</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.01776485350184442</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.07643353869382993</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.05338065881724112</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.0543818212531735</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.04594289241855173</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.04112331433564145</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.04102087034535591</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.03225962304336207</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.03734962917704192</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.03274628682757698</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.01714185821621085</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.04697680023821803</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.02973435027123386</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.03158872711102385</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.02973435027123386</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.02104719257361843</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.01644361367492616</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.03141076578298224</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.02661437686804614</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.1155761643881961</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.02865522411929145</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.02046624433121631</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.02202190917609351</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.02737742990350979</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.02286209895818121</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.005021062490662737</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.01777517028525177</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.02498517383453385</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.01610894488465152</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.03445910031944096</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.02019685662582531</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.004370862622730898</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.02091983291826135</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0.02623349620362028</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0.02316643442666916</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0.0210140801225053</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.09519750208887484</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.09221402978245474</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.07927926917463526</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.05181961557845527</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.08469290568401082</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.04609450229857696</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02963296008251209</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02724104481454891</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0064122109341113</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.04458816704037354</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.02357056474283737</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.00905842336595427</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.02701831332676365</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.09533539505500195</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.01677974058017724</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.0221765263582515</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.007946558052319846</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.02468492958471107</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.03940719226263567</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.02696383193178071</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1013460737801984</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.02793926781433683</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.02255268991834952</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.01714185821621085</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1048694840458883</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.02437993584309446</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.01927726662253893</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.02522318896482915</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.009666153498715916</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.002033294836701321</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.03034282837781905</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.009301922230728434</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.02859376815005744</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.02401727137585613</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.01195020076845467</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.002065665923697783</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.02656556429248899</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.01428548222515204</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.005315830001698317</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.02083648131642495</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.01541174324228664</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.0105743129212755</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.01274906580413644</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1096911926755721</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.01728217884367828</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.009838823117425243</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.02534158124498431</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0.003603063260923285</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0.01583539721506004</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.1698325763974019</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1607958536152893</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.134828168196854</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1120541834791114</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.09362618481331701</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3387045485079297</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0856633154907195</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.05679581448076023</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.07688202966533056</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.2272646294828228</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.05484653621251934</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.04321590449031976</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.05508936308807125</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.05285272945088618</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0224980256505258</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.05320105280599729</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.05221928387116372</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.04411593590986414</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.04407100851993501</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.02412055931666144</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.04275181753943794</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.09204073497289467</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.03684112170450608</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.04697680023821803</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.1048694840458883</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.0186801899067948</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.03555852940019033</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.03120015697383217</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.0258028398073424</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.03144170254185046</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.03016169111725857</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.03699554145779963</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.3943634748332637</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.0307161219455087</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.02959792768530533</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.01304771395814088</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.00850720069678187</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.0287660063477864</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.02562632030755258</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.02489567927317636</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.02399161806225381</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.02368310179028719</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.01264911168668378</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.02352742183240298</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.01712395615744265</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.01487408420540735</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.02519029987635807</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0.124079969888158</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0.02017843812364867</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1189821426447657</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1295180126123472</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1070331501359894</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.04451617443264814</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08867546960932</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.03282836967115919</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.07647943052664723</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.03635548572670375</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.03673436602668332</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.02167443321007285</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0289220302601826</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.01686520405675928</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.02560397850146622</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.07212139554841443</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.02804330441996019</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.03166444190621298</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.01713885539044791</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.02455028930088063</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.029622758871947</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.1735791205559119</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.06166806233559327</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.03735444881790433</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.04912326339939344</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.02973435027123387</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.02437993584309445</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.0186801899067948</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.006483875063563468</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.0007747933884297521</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.02097111843023414</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.01275999233850166</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.02905443308528424</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.03350236909532427</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.02710009310652978</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.01166911212327332</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.03831214782961469</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.2653920189322896</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.007034094456654401</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.02188112246752969</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.0161615400730366</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.01959911243424982</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.04048035681545653</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.004783513039585642</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.001877189321162204</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.005110445030091171</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.02110914129571903</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.0193504956191884</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.08406278193506529</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0.09588109492926247</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0.01943767270707285</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.1255290815777491</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1166913947323541</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1026112478755251</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.09605618650762968</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.07885815161593526</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1736227525774401</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.06157791980859432</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.05093064874150824</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1727948137048721</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.2958520004549233</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.01302452891121284</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.03148579312911558</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.05237781658678423</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.04147243292810886</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.02707857618418263</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.05058245058381756</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.04964900517227587</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.04194451106554065</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.03670641302425008</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.01579170156111669</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.04064753579111934</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.01565108341025492</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.03502776956061508</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.03158872711102385</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.01927726662253893</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.03555852940019033</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.006483875063563469</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.02936045038863619</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.01353829646930382</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.02634543045896486</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.02867710637281065</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.004644031539550728</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.002039963888367549</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.02920424763210817</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.02438293323239236</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.03643532299577079</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0.1632924552616744</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.02735011842503729</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0.02309477509790783</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.02367029222481961</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0.02281072969523971</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.02251739886327362</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0.1256814304952504</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.02236938160870378</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0.009290794905051377</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.01909919287047221</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0.01079084467189535</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0.01125402004777665</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0.01374354339276372</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.02534217319537624</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.02603973394684717</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.06390553770655244</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.09111370524142147</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.04056840478424852</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.08494929540737836</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0292051899894872</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.003629985376690771</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.05607935005069311</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0592283990844699</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.000138162564937178</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.008628709052295446</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.04884191278497516</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.04440847387469937</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.01294306357844317</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.05124800273331007</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.04809138060539511</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.03993267608088103</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.0114344259817564</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.001336806023238658</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.04118236663670135</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.02582529794818077</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.02642309394465405</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.02973435027123387</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.02522318896482916</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.03120015697383217</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.0007747933884297521</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.02936045038863619</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.02778877721769647</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.02930591646974556</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.05845891958123456</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.01584724204256064</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.03057446401762335</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.02600463070223319</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.02108653097598948</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.003681234070061146</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.02752204643302333</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.6894537221568071</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.0161615400730366</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.010833856426088</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.02311086798440786</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.01361461403574375</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.0241948845838684</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.01803468644677102</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.01614928666796549</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.008552227974552018</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.02426554530084359</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0.006764857023965094</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0.02356602797229187</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.007080019835831257</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.03063708778642397</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.03323582064013589</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0171276401189604</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.02270842370843821</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.03115340353975582</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05236774376230932</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.03630601409548116</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.02759912017032848</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.02389766104113343</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.04208598873229401</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.04856900292620363</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.00546737354436333</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.001548143688075315</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.005580620886212695</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.00930447517129402</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.007784709269609148</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.01032701606126645</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.02109722536167595</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.01826611468372993</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.01101834079992321</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.02003511261142185</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.01115579153333628</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.02104719257361843</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.009666153498715916</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.0258028398073424</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.02097111843023414</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.01353829646930382</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.02778877721769647</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.006374010561833388</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.0235691782705658</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.009722376092665224</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.02885396554850615</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.04776223785309919</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0.01122691456670301</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.01320208881151862</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0.002406618331891553</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0.02212266279730432</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0.0142957698568356</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.004121429752496525</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0.007421682107932255</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.01181643127617431</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0.009068381348867763</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.01161261766435426</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.0146840745490041</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0.004542595005560943</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0.009173752244325713</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0.0004221885369607631</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0.001315709094577001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.1434209101798377</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1391466691680075</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1109091853579165</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.08765058194774251</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.08383674073021882</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.05214489431653659</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0756031252251239</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.002204913667646288</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.05913753446350375</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.03555851892626375</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1099831937184074</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.03188851869689607</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.06837043228245999</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.1240965986211101</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.2383387282237124</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.05700918620974123</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.05954518230626595</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.01674211289732546</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.03332256446789227</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.02485840958294748</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.2715402023957513</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.03422397768197624</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.01998648790174419</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.01644361367492616</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.002033294836701321</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.03144170254185047</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.01275999233850166</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.02634543045896486</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.02930591646974556</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.006374010561833388</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.02661954066891853</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.0083662329852377</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.01669413114563841</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.0232172635460483</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.02628323171407222</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.02057513546070703</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.01687709115236142</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.02846130231232904</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.013360895406835</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.01609944752417552</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.003487088210117275</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.005918427593798908</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.01744880143929876</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.06971225987623114</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.002202757158124442</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.01186612627818817</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.02223198326029123</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0.00901758566099645</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0.01780870814502735</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.06681448375333224</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.06811323174499398</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1108444058444139</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.07440055065684772</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1736826352218349</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.06871481678380244</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05035630433986168</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.05749236008921868</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.03075246611453997</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.05370924849540361</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.05240405379259892</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.04215774799735359</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.04425427333667058</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.04647901718241407</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.04550245833367324</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.04504169540162499</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.04421049874319033</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.03734994784512444</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.003265621868904485</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.03723574455037302</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.03023759882722561</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.002980465477035121</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.02777765828833169</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.03141076578298224</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.03034282837781905</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.03016169111725857</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.02905443308528424</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.02867710637281065</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.05845891958123456</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.0235691782705658</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.02661954066891853</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.02641619383638753</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.02687179249728367</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.01386120401077257</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.02505854251009414</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.02379956040999192</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.02418903305786546</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.00580686993511706</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.02169605398160735</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.003673545785648771</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.02031206331372343</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.02005086367169682</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.02126480181823243</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.019919060091254</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.01855275253124443</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.01700708482407756</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.02132690528219413</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0.01883349245212507</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0.01708370447028944</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.1059923618677256</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1040733903872485</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.09813313703164485</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.05000372503851516</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.06307763178692703</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.02881647784720647</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.05355800294533476</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.01455498336261893</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.02018642824433771</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.02263881098852798</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.07591880921132654</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.04419691400871321</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.03669516613915683</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.03071016685520916</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.03315036670733621</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.03469455804839457</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.03606181639463509</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.03302932535492815</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.03859824368274693</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.000846365055827077</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.008708824961139445</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.01504717403225535</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.0437537734567784</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.02661437686804614</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.009301922230728434</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.03699554145779963</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.03350236909532427</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.004644031539550729</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.01584724204256064</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.009722376092665224</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.0083662329852377</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.02641619383638753</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0.001197051713386541</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.015141950351829</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.02686448241145249</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.005236911637293461</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0.008224515162236309</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.008504199309167328</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0.005525931743399903</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.002629762882441118</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0.03860556265367034</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0.005649624163045429</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.01249228734453799</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0.01554268008867198</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0.08930648570316177</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0.0116879932686744</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0.007843794462715083</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0.02328716611521628</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>0.005845420801492196</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.1473745318880191</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1417713881616564</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1198631215272443</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.09983182823526363</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.08310843362962354</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.2946199198990391</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.07306983989716387</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.032630398500211</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.08032534163959867</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.1459676952006473</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.05843963236822138</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.03891317777959733</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.04908046859690538</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.04891064417766851</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.02640819725923859</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.04739812652022572</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.04652344442781377</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.03930397241270744</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.03926394549594981</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.03641706574154279</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.03808864580355554</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.1887941940937287</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.03282266150004396</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.1155761643881961</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.02859376815005744</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.3943634748332637</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.02710009310652979</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.002039963888367549</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.03057446401762335</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.02885396554850615</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.01669413114563841</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.02687179249728367</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.001197051713386541</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.02736574855939285</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.02636952178898324</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.0208478287123705</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.01586775428903339</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.02562834260678946</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.02283111908733284</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.0221801730183797</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.02137472264856098</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.02109985791335458</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.0150351173209569</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.02096115880964761</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.00884756986175181</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.01789683871896964</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0.02244265776047671</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0.01455833395554626</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0.01797746684925433</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.02187439715269795</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01357293990924441</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01574833770609688</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1706586713041968</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.05161221097129773</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.07829628811084531</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.00994513700820094</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.008930410136013534</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.05768604631306525</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.05469652944766293</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.02567370571927502</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.03236210888096627</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0357716404182636</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.04733339235297448</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.01520681671937769</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.03862280168016468</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.04502317411143296</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.03519040584355004</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.001884135481482827</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.01223481158880126</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.03100506287147766</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.03343419048445973</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.03176420881325855</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.02865522411929145</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.02401727137585613</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.0307161219455087</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.01166911212327332</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.02920424763210816</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.02600463070223318</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.04776223785309919</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.0232172635460483</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.01386120401077257</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.01514195035182901</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.02736574855939285</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.02551916749377294</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.01990791719612662</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.02463367475851493</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.02056702812427393</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.01736343170864051</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.01659957338019351</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.02068543873364652</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.005101029830957926</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.02165569043382174</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.02028521134389509</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.01889378838073404</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.01132590004381719</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0.002333041795835692</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0.01917968885001536</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0.005462676768405382</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.135448287562187</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1305462357070085</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1074667701958717</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.07672213148415309</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0772933732511599</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.01386106822602327</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.06943349304019006</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.03635347591743836</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.04937786916814082</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.002942498951977752</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.01832429898934569</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0478091638248017</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.006899304488908047</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.05915689772001681</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.007441992482162528</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.009168256498121493</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.007464594831320761</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.00127361557606656</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.03366362156639845</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.01962977255375483</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.01603670295733167</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.03221704725392455</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.04931729642315553</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.02046624433121632</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.01195020076845467</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.02959792768530533</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.03831214782961469</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.02438293323239236</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.02108653097598948</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.01122691456670301</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.02628323171407222</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.02505854251009414</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.0268644824114525</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.02636952178898324</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.02551916749377295</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.01438592978417571</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.0149062123110202</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.001965262676718483</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.2090627605003889</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.02068350328763866</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.5337454568577145</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.1813161856556044</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.06408110258017619</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.01239238113443934</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.1015701824834743</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.0166891990506749</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.04384972141829341</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0.001618814768909007</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0.001780288839341667</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.06039095901266129</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.08747814352215259</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.04218148448173414</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.03369445860049106</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0681188265888068</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.03445438403717339</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.05847534710112932</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.03021324943607159</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.007844734531634491</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.04539603909612559</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.01407159854422013</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.02859809715018892</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.02050267196723291</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.007867290876779301</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.03198557107230697</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.02883699871449986</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.01182744907216371</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.02861669153552133</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.02237623349680554</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.03361395922738303</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.005063795151473521</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.02363512630573507</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.04028430923468396</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.02202190917609351</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.002065665923697783</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.01304771395814088</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.2653920189322896</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.03643532299577079</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.003681234070061145</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.01320208881151862</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.02057513546070703</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.02379956040999192</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.005236911637293461</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.0208478287123705</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.01990791719612662</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.01438592978417571</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.008630365686850572</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.0003414486785720039</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.005520488313603681</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.01435036142852144</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.007957447375712383</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.02020430839559934</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.004072122906067062</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.007381476696285704</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.01729127813287035</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.002807004628603054</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0.006294103606288867</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0.01196863106031798</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0.009428859034916921</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.1262211034528225</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1298452848302699</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1019329914525887</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.08986506552006315</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.07618199420528719</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.2707598249183578</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.06870015219623099</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.03977877397773196</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0220072379704381</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.2780664944236648</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.008559404346012192</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.04599473508095783</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.04418049437922984</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.03898783229129335</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.02257753730140323</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.04266610980248247</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.04187875205362317</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.03538003979795975</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.00787646953575718</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.02915676621842703</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.03428604595561185</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.03109914396410228</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.02954579394552662</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.02737742990350979</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.02656556429248899</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.00850720069678187</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.0070340944566544</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.1632924552616744</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.02752204643302333</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.002406618331891552</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.01687709115236142</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.02418903305786546</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.008224515162236309</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.01586775428903339</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.02463367475851494</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.0149062123110202</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.008630365686850572</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.02306972363665718</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.1365873048070877</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.01996580386012566</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.01383848447615768</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.01352290980774754</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.1193959208438873</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.01886849057162773</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.1004053786818956</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.01611009847773287</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.0004122874143040116</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0.02285365849509947</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0.01618267705651757</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.05301188217445405</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.05736740695504216</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.07299637727678476</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.07212486182969111</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.04493571707140243</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.06633262974631604</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.01029664564372319</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.009456273301846731</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.04961781113945059</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.04900072464889461</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0114319595870188</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.002323075475811514</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.04198592301075435</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.006774670112373319</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.005161746256728326</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.042957461861176</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.03693975710248339</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.02956281485555894</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.01132792116661342</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.02220437280103763</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.02828774523873259</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.027905678017076</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.03809667697241727</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.02286209895818122</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.01428548222515204</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.0287660063477864</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.02188112246752969</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.02735011842503729</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.6894537221568072</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.02212266279730432</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.02846130231232903</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.00580686993511706</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.008504199309167328</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.02562834260678946</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.02056702812427393</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.001965262676718483</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.0003414486785720039</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.02306972363665718</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.01061976734898369</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.01492344762723865</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.01400486601348329</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.002818046619300528</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.02028080659368852</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.01352748668396308</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.005972711520689595</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.0162201087500303</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.02034003631763192</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0.01218625310378639</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0.01546616940754324</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.1124048126028228</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1149452105864498</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.08674632521085329</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.06522384306175895</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.05712268258727926</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1077997563857543</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.05962653964414167</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.03903985826984579</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.02653853036797613</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.1133368694724865</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.02932394476313272</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.04334641722693194</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.03962714791834911</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.005264218896219741</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.03011660136731586</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.03826883940525453</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.03756262861207305</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.03173368904377727</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.01476271597337033</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.03163665833684177</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.01682596857482681</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.02789399248051144</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.01738324024648391</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.005021062490662737</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.005315830001698317</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.02562632030755259</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.0161615400730366</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.02309477509790783</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.0161615400730366</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.0142957698568356</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.013360895406835</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.02169605398160735</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.005525931743399902</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.02283111908733284</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.01736343170864051</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.2090627605003889</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.005520488313603682</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.1365873048070877</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.01061976734898369</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.0005502434440033839</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.1086719417378809</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.2197839401001075</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.06224691499265742</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.001409863258102721</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.06281300353789865</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.01444975354681442</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.00667880352826754</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0.01600152684449009</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0.03516195043780087</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.06364261612975791</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0475860764090684</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.03973276339546405</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.06600487212347368</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.04141145739715277</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.06280229105887374</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.01477121322347236</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.004233113581730874</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.04356250312694991</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.04177780258876543</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.004178777759581776</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.01912179811689822</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.03562941924327279</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.02110630563800328</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.01808351043634266</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.03422375254307226</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.03649166729208494</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.0273484925297404</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.02494018621036149</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.02375466138056012</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.01197489185516183</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.02318581031721498</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.5198683355185224</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.01777517028525178</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.02083648131642495</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.02489567927317636</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.01959911243424982</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.0236702922248196</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.010833856426088</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.004121429752496526</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.01609944752417552</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.003673545785648771</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.002629762882441118</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.0221801730183797</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.01659957338019351</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.02068350328763867</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.01435036142852143</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.01996580386012566</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.01492344762723865</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.0005502434440033839</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.01059936165646065</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.02715894547106962</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.01755212212127747</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.01644133710961693</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.0116196806371928</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.01403777153959607</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0.01760338277223145</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>0.01554530168282256</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0.05887426914479566</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.1135078216644407</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1074162309007306</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.09157765281064159</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.06817691900938112</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.06397169684136417</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.01592020033461696</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.05768902947604718</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.03506294497537514</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.04658209392110677</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.02683882296230224</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.02818429122618521</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.04058135050193515</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.02234758139993175</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.04053629920592328</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.02101842172010817</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.04377304758961672</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.0674876330082491</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.009969504622463113</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.0296791420572683</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.05357455627175034</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.004604026078545057</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.02611463549164244</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.04746954484455908</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.02498517383453385</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.01541174324228664</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.02399161806225381</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.04048035681545654</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.02281072969523971</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.02311086798440786</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.007421682107932256</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.003487088210117275</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.02031206331372343</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.03860556265367034</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.02137472264856097</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.02068543873364652</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.5337454568577145</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.007957447375712384</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.01383848447615768</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.01400486601348329</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.1086719417378809</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.01059936165646065</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.1134818132032831</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.01976870642064319</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.003694850928338626</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.06200625944056767</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.01352800417805976</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.0318096562399794</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0.008103504907714245</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0.01666418074911109</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.1022452823711525</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1043555992186603</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.08357267977637646</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.006257245887144317</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.05911726408777259</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.04932000467437023</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.05479612595359558</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.01276113179468815</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.04347746235582608</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.03681152729548036</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.02474397236305542</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.03726546458317508</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.03060257518586375</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.005765631689412472</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.0265084232601967</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.03226676260487111</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.03156431735612853</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.02932735479715366</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.02929748800463556</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.01458679209506603</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.00211913957905829</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.02167227643127533</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.07022736585602214</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.01610894488465152</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.0105743129212755</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.02368310179028719</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.004783513039585642</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.02251739886327362</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.01361461403574375</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.01181643127617431</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.005918427593798909</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.02005086367169682</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.00564962416304543</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.02109985791335458</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.005101029830957926</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.1813161856556045</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.02020430839559934</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.01352290980774754</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.002818046619300528</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.2197839401001075</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.02715894547106962</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.1134818132032831</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.01050618705795736</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.0107402989337527</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.04196475258012478</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.01335404303023996</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.001774920215471257</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0.0008600594025881488</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0.01341420513697719</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.1020690168761754</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1095054115245274</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.08781055489705375</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.07900120703854406</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.06125881100941863</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.1744012458558575</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05226619347113472</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.04483150117698717</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.07669179753148207</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.1933265054437859</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.007478528009337719</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.03984519257027894</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.03883947965007077</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.02444592057815227</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.01466313645100361</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.03457930884893471</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.0308642052517982</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.02765210026545796</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.0310712439320024</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.01716658628887641</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.02659148285754184</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.004061941612999265</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.02190652066953952</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.03445910031944096</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.01274906580413644</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.01264911168668378</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.001877189321162204</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.1256814304952504</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.0241948845838684</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.009068381348867763</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.01744880143929876</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.02126480181823243</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.01249228734453799</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.0150351173209569</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.02165569043382174</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.06408110258017619</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.004072122906067062</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.1193959208438873</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.02028080659368852</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.06224691499265742</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.01755212212127747</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.01976870642064319</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.01050618705795736</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.02079694876578058</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.01793049507197852</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.01416253599644417</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0.006094919620522159</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0.0156834647178546</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0.01422634049373075</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.1047001375303864</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1019784523670245</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.08293465829745963</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.05915370869735626</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.06070512879469104</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0591339094687981</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05224313750639843</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.02892857390590502</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0456808111347342</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.03919773053947184</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0188652552744851</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.01730054381838727</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.02729409560710006</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.3343818817541398</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.01090334963930055</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.03513446787982874</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.03448609858473023</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.02545847134567172</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.02910490209510976</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.01061444073088265</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.3045324644821004</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.02560936255391503</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.002665227160546734</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.02019685662582531</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.1096911926755721</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.02352742183240298</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.005110445030091171</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.02236938160870378</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.01803468644677102</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.01161261766435426</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.06971225987623114</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.019919060091254</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.01554268008867198</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0.02096115880964761</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0.0202852113438951</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0.01239238113443934</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0.007381476696285704</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0.01886849057162773</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0.01352748668396308</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0.001409863258102721</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0.01644133710961693</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0.003694850928338626</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0.0107402989337527</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.02079694876578058</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0.007360076323963344</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0.005524511943178026</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0.01663590728395109</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0.007682236859400201</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0.0097973933700798</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.1016351010500595</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.09959006757492615</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.08180518997353708</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.06693699593538431</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.05843084684064315</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.08202614275185503</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04805320106176322</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.04052606135581618</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.01012457604909662</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.1112899438329692</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.03217718600045165</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.03405351511822734</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.01479845367462545</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.03458905246771068</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.02311661975178936</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.007392161741685274</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.02222724897601618</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.01925849424966442</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.02710851031840403</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.01520420292171346</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.0142197972783059</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.01499625077186466</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.03305070254541561</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.004370862622730898</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.01728217884367829</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.01712395615744266</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.02110914129571903</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.009290794905051377</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.01614928666796549</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.0146840745490041</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.002202757158124442</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.01855275253124443</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0.08930648570316177</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0.008847569861751812</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0.01889378838073404</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0.1015701824834743</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0.01729127813287035</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0.1004053786818956</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0.005972711520689594</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0.06281300353789865</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.0116196806371928</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0.06200625944056768</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0.04196475258012478</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.01793049507197852</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0.007360076323963345</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0.01235628847157111</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0.004477015523233775</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0.006173642308088115</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0.01241195553391465</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.02572018857314923</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.04898927266992963</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.03660584179791947</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0004052431433492</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0369983887628976</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.01861755444685919</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03315237721019868</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.01052292298776222</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.009590677338715534</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.02633094036455864</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.03169226059824833</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.001180714991060982</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.09259512914007358</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.006151396465374457</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.03030501810389852</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.09737169988523174</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.08887797025828947</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.02657672750034116</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.0248500449549496</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.02049985194060277</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.01999911402583208</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.007404197154131189</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.005611802789850493</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.02091983291826135</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.009838823117425243</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.01487408420540735</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.01935049561918841</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0.01909919287047221</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.00855222797455202</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.004542595005560943</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0.01186612627818817</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0.01700708482407756</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0.0116879932686744</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0.01789683871896964</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0.01132590004381719</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0.0166891990506749</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.002807004628603055</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0.01611009847773287</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0.0162201087500303</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0.01444975354681442</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0.01403777153959607</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0.01352800417805976</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.01335404303023996</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.01416253599644417</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0.005524511943178027</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.01235628847157111</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0.01420389742324605</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0.004368561048271231</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0.07852326475628615</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.00590879819015409</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.04966538748633447</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.02379406413359306</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0163224201150065</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.05767217721259611</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.04045623146296754</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03017420343239894</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.002986838321613347</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.03946747361370855</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.03728057008963978</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.01801016657948448</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.02155121829293081</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.03611739301333732</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.02459903337468928</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.01483908312994167</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.03177645249098444</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.02505338911296055</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.01742927372334231</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.02050198698019723</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.1172766723364743</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.02668948601211546</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.02741938861686175</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.01856646558190179</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.02623349620362028</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.02534158124498431</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.02519029987635807</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.08406278193506528</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0.01079084467189535</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.02426554530084359</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.009173752244325713</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0.02223198326029123</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.02132690528219413</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0.007843794462715083</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0.02244265776047671</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0.002333041795835691</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0.04384972141829342</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0.006294103606288867</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0.0004122874143040115</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0.02034003631763193</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0.00667880352826754</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0.01760338277223145</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0.0318096562399794</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.001774920215471257</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.006094919620522159</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.01663590728395109</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0.004477015523233775</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0.01420389742324605</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0.04331699349243261</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0.007052774095847579</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.0894450325691598</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.08194801243986961</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.06858683605139095</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.06408925767469778</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.050745870253222</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0660987715074343</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04891784037939165</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.04121846551746979</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.01922688258201814</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.06009140713624922</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.02121725608909031</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.02278126908038344</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.03439877094019753</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.0170468440482617</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.0204949768429256</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.03321967666108527</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.03260664280459376</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.02754676926922847</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.02751871581374302</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.08541587766918488</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.009241187642528676</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.01984967487831904</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.1417072403048817</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.02316643442666916</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.003603063260923285</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.124079969888158</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.09588109492926249</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0.01125402004777665</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.006764857023965093</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.0004221885369607631</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0.009017585660996448</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0.01883349245212507</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0.02328716611521629</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0.01455833395554626</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0.01917968885001536</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0.001618814768909007</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.01196863106031798</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0.02285365849509948</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0.01218625310378639</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0.01600152684449008</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.01554530168282256</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0.008103504907714247</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.0008600594025881488</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0.0156834647178546</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0.007682236859400202</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0.006173642308088116</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0.00436856104827123</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0.04331699349243261</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0.004460910531912398</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.0416759539630218</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.04575709937702246</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.05707472511166457</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.005500678808667926</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.04202427584864764</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.02856681863657234</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.01583882841809805</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.02819747281167503</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.03625012001480021</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.01713499870730045</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0350587754768581</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.08342241071152075</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.01009726057980973</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.01123987601852421</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.0124819322808411</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.02288692558129022</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.02957721468060034</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.01644969117135488</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.02068922004567883</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.01634981125330784</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.002132364076481365</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.01236541387203501</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.05460853180054218</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.0210140801225053</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.01583539721506004</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.02017843812364866</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0.01943767270707285</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0.01374354339276372</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.02356602797229187</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.001315709094577001</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0.01780870814502735</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0.01708370447028944</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0.005845420801492196</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0.01797746684925433</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0.005462676768405382</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0.001780288839341667</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0.009428859034916921</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0.01618267705651757</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0.01546616940754325</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0.03516195043780087</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0.05887426914479567</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0.01666418074911109</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.01341420513697719</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0.01422634049373075</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0.0097973933700798</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0.01241195553391465</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0.07852326475628615</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0.007052774095847579</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0.004460910531912399</v>
+      </c>
+      <c r="AX51" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>